--- a/PCAstatic/PCAstatic_predicted_factors_matrix_10.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-4.335439120621749</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.945024528542385</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.545886467463723</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.147131060917183</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.75636398798299</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.379806470202933</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.022409856502883</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.687969365485293</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.379237514128061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.098036994904923</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8453723050607477</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6215390849980341</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4262299488753548</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2586355650154905</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.1175398396622272</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.001408239715334388</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.09153147697623154</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1632166028729926</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2156851259158141</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2510196871134441</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2712996681795894</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2785610730480966</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2747637500587423</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.261765418269513</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2413019072308693</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2149729897489418</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1842331769741251</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1503868504291289</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.1145871228462531</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0778378460689037</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.04099821749087099</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.004789474703485157</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.03019679032610059</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.06348912238642856</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.09472587937481138</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1236444287055309</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.150070154200541</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1739055208639398</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.1951194038922796</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2137368496873074</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.229829400892735</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2435060848418197</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2549051354462265</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.1203158952336</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.075812131025218</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.019370055173585</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9542711159955908</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8832935978189879</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.8087998977389955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7328012524958841</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6570044207007514</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5828446620177125</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.5115095916121079</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4439577494179644</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3809348385725782</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3229896304879701</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2704906627433321</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2236441461135286</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1825129837487655</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1470364872821956</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1170502254885004</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09230542148657735</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.07248738117140981</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.05723254911854255</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.0461439172883726</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.03880463479331166</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.03478977123344747</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.03367626647487544</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.03505115621778596</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.03851819831094912</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.043703043906927</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.05025710477992877</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.05786026747170452</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.06622259955529813</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07508518545938732</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08422022041004888</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09343048191872851</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1025482892281245</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1114340523082622</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1199745033284364</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1280806949369853</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1356858411016673</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1427430676883428</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1492231314243065</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1551121574883501</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1604094378006677</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.09664064974694921</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1501447733672085</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1854937833779591</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2050136561455942</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2108771466827348</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2050948188885447</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1895190968844697</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1658526394533814</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.135656453014689</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1003559271486996</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.06124457225745326</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01948607674375626</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02388438027672375</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.06795863257461986</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1119531111097414</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1552050454267253</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1971670962067898</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2374004699097867</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2755667391339522</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3114186954621594</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3447906021048208</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.3755882053763548</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.4037788229922884</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.4293817683770826</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4524593057739383</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.4731082695063806</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.4914524273624535</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.5076356250169709</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.5218157158856688</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.5341592577537231</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.5448369422457691</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.5540197138528694</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5618755300920745</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.5685667120334287</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.5742478338250345</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.5790641002507141</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.5831501623174099</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.5866293221513686</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.5896130799846873</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.5922009777200321</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.5944806954917518</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.5965283598213003</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.5984090244072751</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.05116001145510304</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2089824297218175</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3243223284291169</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4041577411659157</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4546446534896944</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4811779163802103</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4884609640958095</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.480576382091092</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4610521853752353</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4329214127388487</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3987744645854269</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3608047470531366</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3208487418189582</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2804217670809913</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2407505799579272</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2028037188777398</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1673201897859717</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1348368245913937</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.105714419358218</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.08016260696088735</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.05826333261917406</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.03999277013296751</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0252415268631602</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.01383302136273399</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.005539965895764204</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.89369048338606e-05</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.002776936821205001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.003387099612728794</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.002034409567860843</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0009824249151037688</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.005374945015568818</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01086971666973704</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01721192162317618</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02416790300724481</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.03152679962184358</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.03910139688679483</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.04672831501769183</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.05426764678108301</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.06160214846033621</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.06863607861577384</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.07529377000857466</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.08151801081605764</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.08726830212536096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.09906699286015186</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.146729641520455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.187619257742679</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.2217202648647865</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.249223992393619</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2704462383430307</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2857735422895418</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2956321759177061</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.3004731472024106</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3007664305049164</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.2969990367905172</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2896732292785903</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2793028354528467</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.266406965053832</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2515014234881805</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.2350886956626246</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2176476079894662</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.1996237340297787</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.1814213868945224</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.1633977325663878</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.1458592403139962</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.1290604131501481</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.1132045415498263</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.09844610463707977</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.08489439679530708</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.07261796769156778</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.06164951085505737</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.05199090239961931</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.04361816307514011</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.03648618387000626</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.03053311236676549</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.02568434185361089</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.02185607804341173</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01895848075523424</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01689839226926202</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01558167251832468</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01491516578968081</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.0148083257109284</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01517452606261447</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01593208507569533</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01700503070137821</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01832363403554972</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01982473766253664</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.02729602729378417</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.007422737175997987</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03866521265521498</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06619174151488957</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.08996679583947688</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1100697088242448</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1266338724433204</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1398127080464314</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1497657086038175</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1566576959510391</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.1606650598816694</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1619839793720412</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1608370243965338</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.157475978983432</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1521800867853905</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.1452500597496809</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1369989817791118</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1277416216895828</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.1177836719596641</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1074121537522882</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.09688780848573242</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.08643985552828423</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.07626312125560122</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.06651727985780882</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.05732779739215794</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.04878812062212844</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.04096267351506546</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.03389028815375206</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.02758777901254459</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.02205345256701639</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.01727041737617661</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.01320961808851086</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.009832559342860616</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.007093713838072634</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.004942625736820704</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.003325729165077259</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.002187904723464609</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.001473796944956683</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.001128914183345804</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.001100530572844689</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.001338408050223756</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.001795355212786296</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.002427639007309908</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.05344647936597584</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1352112823121274</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2070260438330918</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2682029231815792</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3184767346040515</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.3579558055540763</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3870612310395279</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.4064609150180646</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4170038084622991</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4196581900217624</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.4154564398193909</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.405447777201304</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3906597599636975</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3720687982321054</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3505794088676407</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3270114199707834</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.3020938988125453</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2764643050439856</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2506713123700203</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.225179884885706</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.2003774780652062</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1765805763602828</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1540411042609093</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1329525057987141</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1134554591131275</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.09564328237614793</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.0795671138094681</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.06524093502734124</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05264647464913495</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.04173799369696569</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.03244692518585772</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.02468632170697574</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.01835505714714404</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01334173025544243</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.009528225906709683</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.006792901881284816</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.005013382428033669</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.004068953040170908</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.003842562597625865</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004222448694555863</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.005103409365275717</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.006387749618678339</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.007985934432091595</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.02042786141821852</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01738340158271725</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01472144464060387</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01239964210075491</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01038281794472689</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008641018589366794</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.007147628416356811</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.005878318332937386</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.004810425558902455</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.003922652480278081</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.003194956287450929</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002608539596683541</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.002145879988156386</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.001790761412146291</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00152828881268032</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.001344879680743121</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.001228233488854074</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.001167283430589104</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.001152135883032357</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.001174002588287738</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001225129481787723</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.001298724879280041</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001388888653167842</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001490543208726154</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.00159936653622035</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001711727332283077</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.001824622092003648</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.001935614104727501</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.002042774381093963</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.002144624649008835</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.002240082650135763</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.002328410028499611</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.002409163123062055</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.002482146959170515</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002547372687120726</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.002605018649417481</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.002655395181474914</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.002698913171934293</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002736056335009136</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.002767357082650365</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.002793375831212893</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.002814683536493169</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.002831847222055315</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.01172432636966085</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.008369523795456364</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.006149495290087854</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00480760798347412</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.004133314860596034</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00395202222260839</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.004120242586087333</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.004521323677602072</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.005061873925865035</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.005668549974276947</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.006285133844249375</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.00686986692671258</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.007393041695713156</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.007834856876516503</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.008183536483210173</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.008433703843423285</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.00858499322375678</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.008640875923620756</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.008607675132546476</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.008493743964084494</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.008308783057094284</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.008063277119970458</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.007768033082049722</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.007433805616917432</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.00707099843069376</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.006689431753048421</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.006298167942413179</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.005905388108825838</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.005518313292434384</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.00514316414173388</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.004785153325694238</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.004448505173923516</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.00413649732479289</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.003851519501623338</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.003595144938189299</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.003368210428453722</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.003170901464427311</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.003002839429930744</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.002863168317032196</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.00275063890936562</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.002663688819841167</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.002600517171336925</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002559153063541999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -618,6 +1878,132 @@
       </c>
       <c r="E11" t="n">
         <v>0.01114015856550311</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01235292577427351</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01306206910816543</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01334299240819514</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0132666622843674</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0128986713211342</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01229926443273285</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01152295605973769</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01061831270538884</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.009627883680810087</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.008588303999415885</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.007530545418789504</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.006480280903518877</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.005458323497209796</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.004481104036850295</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.003561158968925101</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.002707607449508733</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.001926604295564973</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.001221761379733448</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0005945344565943511</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4.457526439913061e-05</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.0004299496606773951</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.00083207134796594</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.001165759741030345</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.001435692071168575</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.00164704663703815</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.001805320690747519</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.00191617135548228</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.001985278606411332</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.002018229343513805</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.002020421498747031</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.001996986984427873</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.001952732137801191</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.001892094175852563</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.001819112063852601</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.001737410132102266</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.001650192751863284</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.001560248401939703</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.001469961516503793</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.001381330595175778</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.001295991169987159</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.001215242352888462</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.00114007582495</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_10.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_10.xlsx
@@ -443,82 +443,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.546004450979949</v>
+        <v>-1.484439164362272</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.34045850919005</v>
+        <v>-1.27922042006967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.149301176356966</v>
+        <v>-0.4646261626649179</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.131202972523497</v>
+        <v>-0.5894678462724917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3394332167418996</v>
+        <v>-1.002315334143556</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1981644286802984</v>
+        <v>-0.8420532791301936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.178004393929078</v>
+        <v>-0.725020227433065</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7595660621586662</v>
+        <v>-0.6808037628073165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1314775148644428</v>
+        <v>0.8211783586799222</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07734033066112114</v>
+        <v>0.6820964583389857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1983727107882802</v>
+        <v>-0.09213892798072537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1439439259330764</v>
+        <v>0.005658836007705776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3506641371955279</v>
+        <v>0.7902620007208699</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2380344147737066</v>
+        <v>0.6113274057277852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09753381730995681</v>
+        <v>0.3284874063919779</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03166756318959256</v>
+        <v>0.3285947465387778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04731397797236764</v>
+        <v>-0.1876080986239586</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03053534835443629</v>
+        <v>-0.04585113813152625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.009430013393246088</v>
+        <v>-0.2903066199609222</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003002641750018904</v>
+        <v>-0.1285775647085816</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_10.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.484439164362272</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.27922042006967</v>
+        <v>-123.9550296711438</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3380.890217572635</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-968611.9862105123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-328301487.2324842</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-92848107320.68393</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-27841850607351.39</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-8274136495356425</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.418411949167883e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-6.839402871410957e+20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.85923150426396e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-4.888926956790534e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.254396324365021e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-3.170602458665152e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-7.923746820402575e+32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.960530415155599e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-4.817802141023544e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.180438569912226e+40</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-2.891479340731916e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4646261626649179</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5894678462724917</v>
+        <v>-86.50748073891744</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-21199.62476671857</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3804048.817149667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-727886835.3080769</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-146240537256.1685</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-29921187127535.09</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5871319052448512</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.138773065010225e+18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.176600620732487e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.063778692347121e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.294871106833389e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.227799467987582e+27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.860413033280916e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.370111096315683e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.196445611748111e+33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7.912019788770446e+34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-1.515331604447711e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-3.604019181248221e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-1.002315334143556</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8420532791301936</v>
+        <v>-23.7945229249472</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1133.715004365023</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-109012.3201676904</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-14786012.21501993</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5010064455.69026</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1809102744010.896</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-305282315639221.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-5.197771661588534e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7.522129434636428e+18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-6.69257228155166e+20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.297277380893128e+22</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.353546725951444e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.611986338547318e+27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.054433485119988e+30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.504764434057607e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.450196958327342e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.382243552268439e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.563176197449328e+38</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.725020227433065</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6808037628073165</v>
+        <v>74.53779669725925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8980.685850769785</v>
+      </c>
+      <c r="D5" t="n">
+        <v>979199.2894152522</v>
+      </c>
+      <c r="E5" t="n">
+        <v>197623448.2133969</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41025934896.37175</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8261323074037.866</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1531059161783212</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.684637731625159e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.282650695763159e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-5.895551896920629e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-6.522156903385652e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-5.636975371537483e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-5.835180986280031e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-9.607670181694175e+29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.564805350594818e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2.611876807852465e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-4.606749158009495e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-8.482669007799447e+38</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.8211783586799222</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6820964583389857</v>
+        <v>-12.09992167288656</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3138.002594108159</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1070453.472147528</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-147145902.7146581</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-18523181743.97122</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1995795015540.625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-129432522946171.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1052558664115006</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.396742157383479e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.97419477727929e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.612788687519724e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.305990545317029e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.222877141331624e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.134099512207023e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.613397177681693e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.936799064206004e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.388462032870837e+34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.17815123624061e+37</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.09213892798072537</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005658836007705776</v>
+        <v>-0.5780088460346426</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3246.844812184865</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-703584.2465934869</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-117855349.9274273</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-18151156532.72955</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2521533639397.003</v>
+      </c>
+      <c r="H7" t="n">
+        <v>269724407287015.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.550275162196206e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.686577775503455e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.291634512405745e+19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.846332648638027e+21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.217029979843464e+22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.517927202320752e+25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.998924911244e+28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.247490783514707e+30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.089123249415757e+33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.944616400972955e+35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.199637527639266e+37</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>0.7902620007208699</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6113274057277852</v>
+        <v>55.13059294885095</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5569.808360804794</v>
+      </c>
+      <c r="D8" t="n">
+        <v>614515.2166537135</v>
+      </c>
+      <c r="E8" t="n">
+        <v>97794724.43318053</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14392652762.03738</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1690019364860.593</v>
+      </c>
+      <c r="H8" t="n">
+        <v>117256402342478.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5339347734263029</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.288863790067747e+17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.040662000720591e+20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.454625526021431e+22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.99452226127091e+24</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.676269763067067e+26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.403802750445157e+28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.156179148466393e+30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.211180891825364e+32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.309991732756115e+34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.143702440222433e+37</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>0.3284874063919779</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3285947465387778</v>
+        <v>-13.98504248671313</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3101.812342922862</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-472858.1050346395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-52985649.50732504</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1025142149.860469</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31240597246.33014</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8251754174444.872</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1239605339514720</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.066151898169684e+17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.060300344185169e+19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.295117652826592e+21</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.684358737303008e+23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.102216109934127e+25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.507686123264285e+27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.870293742783467e+29</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.172100902963032e+32</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.523766484778648e+34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.145383427017391e+36</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.1876080986239586</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.04585113813152625</v>
+        <v>11.71931852019795</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1500.144081287526</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-196597.1491945873</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-13233119.04195265</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5194960458.350213</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-226655556976.6904</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-21426587610719.19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1499854235493524</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-9.851555236647238e+16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-4.311300380867872e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.345612406388349e+20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.11940258401018e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.764795300621928e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.785386092053609e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.577352875465698e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.216809867782951e+32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.657663435641553e+34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.203798982801403e+36</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2903066199609222</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1285775647085816</v>
+        <v>-7.725247398441531</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-890.9956824164003</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-228324.4615363584</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-25731770.35797049</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-786658295.1196961</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21283162417.17806</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-2924917975904.215</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-392717418081735.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-4.784775862809235e+16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-5.185000143901593e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-5.346423522322249e+20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-5.32849343311675e+22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-5.393668334119915e+24</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-5.725027233010528e+26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-6.050810105784307e+28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-6.507729295805268e+30</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-7.289958299875775e+32</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-8.389981121472554e+34</v>
       </c>
     </row>
   </sheetData>
